--- a/Paramo_PalaDino_Anexo B_resultados_tests.xlsx
+++ b/Paramo_PalaDino_Anexo B_resultados_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Research Unit\Publicaciones\Paramo_2025_PalaDino\SUPPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE985A37-BE8F-480C-8BF2-F07FFEAABEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A9847A-2EB2-4ABD-8150-CEF7522D36B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="705" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduccion" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="60">
-  <si>
-    <t>Anexo C. Resultados de los tests</t>
-  </si>
   <si>
     <t>En este anexo se aportan los resultados de los test de señal filogenética, estimación de caractéres ancestrales y cambios experimentados en los respectivos nodos de la filogenia.</t>
   </si>
@@ -215,6 +212,9 @@
   <si>
     <t>nodos internos + taxones terminales</t>
   </si>
+  <si>
+    <t>Anexo B. Resultados de los tests</t>
+  </si>
 </sst>
 </file>
 
@@ -311,6 +311,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -319,12 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,62 +621,62 @@
   <sheetData>
     <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -701,16 +701,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -762,18 +762,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>0.02</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>1.4999999999999999E-2</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.86199999999999999</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0.307</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0.16700000000000001</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0.79500000000000004</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>0.71299999999999997</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0.49299999999999999</v>
@@ -890,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DE7EB1-76B5-4C81-A1A8-06BCC12A7D65}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -908,46 +908,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="11" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>-9.7000000000000003E-2</v>
@@ -978,9 +978,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>-0.114</v>
@@ -1011,9 +1011,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>-0.35699999999999998</v>
@@ -1040,13 +1040,13 @@
         <v>19.2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>-0.26900000000000002</v>
@@ -1073,15 +1073,15 @@
         <v>9.1430000000000007</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="4">
         <v>-0.10100000000000001</v>
@@ -1112,9 +1112,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>-0.111</v>
@@ -1141,13 +1141,13 @@
         <v>4.5</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>-0.36599999999999999</v>
@@ -1174,13 +1174,13 @@
         <v>19.2</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6">
         <v>-0.218</v>
@@ -1207,60 +1207,60 @@
         <v>7</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1">
         <v>32</v>
@@ -1275,13 +1275,13 @@
         <v>16.940999999999999</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>-1.0249999999999999</v>
@@ -1308,13 +1308,13 @@
         <v>6</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6">
         <v>-0.76900000000000002</v>
@@ -1345,11 +1345,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>33</v>
+      <c r="A14" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
         <v>5.8999999999999997E-2</v>
@@ -1376,13 +1376,13 @@
         <v>30.117999999999999</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>5.0999999999999997E-2</v>
@@ -1409,13 +1409,13 @@
         <v>28.125</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>2.1000000000000001E-2</v>
@@ -1442,13 +1442,13 @@
         <v>8.5329999999999995</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="6">
         <v>1.9E-2</v>
@@ -1475,15 +1475,15 @@
         <v>4.4809999999999999</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>6</v>
+      <c r="A18" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4">
         <v>-6.0000000000000001E-3</v>
@@ -1514,9 +1514,9 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>7.0000000000000001E-3</v>
@@ -1543,13 +1543,13 @@
         <v>6.125</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>-4.0000000000000001E-3</v>
@@ -1580,9 +1580,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -1613,11 +1613,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>7</v>
+      <c r="A22" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4">
         <v>-1.7999999999999999E-2</v>
@@ -1644,13 +1644,13 @@
         <v>8.7579999999999991</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
         <v>-2.1999999999999999E-2</v>
@@ -1677,13 +1677,13 @@
         <v>15.125</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
         <v>-2.1999999999999999E-2</v>
@@ -1710,13 +1710,13 @@
         <v>16.132999999999999</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="6">
         <v>-1.6E-2</v>
@@ -1743,15 +1743,15 @@
         <v>11.571</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>8</v>
+      <c r="A26" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="4">
         <v>-1.4E-2</v>
@@ -1778,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1">
         <v>-1.6E-2</v>
@@ -1811,13 +1811,13 @@
         <v>13.333</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1">
         <v>-1.0999999999999999E-2</v>
@@ -1844,13 +1844,13 @@
         <v>6.5330000000000004</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="6">
         <v>6.0000000000000001E-3</v>
@@ -1881,11 +1881,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>34</v>
+      <c r="A30" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4">
         <v>2.3E-2</v>
@@ -1912,13 +1912,13 @@
         <v>26.471</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1">
         <v>1.2999999999999999E-2</v>
@@ -1945,13 +1945,13 @@
         <v>17.065000000000001</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
         <v>6.0000000000000001E-3</v>
@@ -1982,9 +1982,9 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="6">
         <v>-4.0000000000000001E-3</v>
@@ -2015,11 +2015,11 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>10</v>
+      <c r="A34" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="4">
         <v>1.0999999999999999E-2</v>
@@ -2046,13 +2046,13 @@
         <v>11.765000000000001</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1">
         <v>-4.0000000000000001E-3</v>
@@ -2079,13 +2079,13 @@
         <v>6.125</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1">
         <v>1E-3</v>
@@ -2116,9 +2116,9 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -2149,11 +2149,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>35</v>
+      <c r="A38" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="4">
         <v>0.02</v>
@@ -2180,13 +2180,13 @@
         <v>23.059000000000001</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1">
         <v>1.4999999999999999E-2</v>
@@ -2213,13 +2213,13 @@
         <v>21.125</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1">
         <v>3.0000000000000001E-3</v>
@@ -2246,13 +2246,13 @@
         <v>6.5330000000000004</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="6">
         <v>-1E-3</v>
@@ -2284,12 +2284,12 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2332,40 +2332,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3688,40 +3688,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4961,16 +4961,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5306,7 +5306,7 @@
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -5376,7 +5376,7 @@
         <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5449,40 +5449,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6646,16 +6646,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6770,40 +6770,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
